--- a/biology/Botanique/Champagne_Pol_Roger/Champagne_Pol_Roger.xlsx
+++ b/biology/Botanique/Champagne_Pol_Roger/Champagne_Pol_Roger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pol Roger et Compagnie constitue l'une des dernières grandes maisons de Champagne à la fois familiale et indépendante. L'entreprise a su nouer de solides relations commerciales et des liens privilégiés avec le marché anglais qui reste à ce jour le plus important de la maison parmi les 90 pays où ses vins sont distribués.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père de Pol Roger, notaire, meurt en 1849 alors que le jeune homme n'est âgé que de 18 ans. Il est alors contraint de se lancer dans le commerce du champagne à Aÿ, où habite la famille. Deux ans plus tard, la famille s'installe à Épernay où l'affaire se développe. Le fondateur meurt en 1899 et ses deux fils prennent alors la relève. Maurice est chargé de la dimension commerciale, tandis que Georges travaille à l'élaboration du vin. L'année suivante, les caves et les bâtiments s'effondrent.
 Winston Churchill, grand amateur du champagne Pol Roger depuis 1908 était un inconditionnel de la marque. À la suite de sa rencontre avec Odette Pol-Roger, petite fille de Richard Wallace, en 1944 lors d'un dîner organisé à l’ambassade de Grande-Bretagne à Paris, des liens forts se sont noués entre les familles Churchill et Pol-Roger[réf. souhaitée]. En 1975, pour le dixième anniversaire de la mort de Winston Churchill, la Maison l'honore en lançant la production du premier millésime de sa cuvée prestige Sir Winston Churchill[réf. souhaitée].
